--- a/crawling_data/comments6_10.xlsx
+++ b/crawling_data/comments6_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>path</t>
   </si>
@@ -196,7 +196,7 @@
     <t>SW 산업현장 찾은 조경식 과기부 차관 “민관협력 SW 인재양성 추진”</t>
   </si>
   <si>
-    <t>[6, 0, 0, 0, 1]</t>
+    <t>[7, 0, 0, 0, 1]</t>
   </si>
   <si>
     <t>[0, 0, 0, 0, 0]</t>
@@ -220,28 +220,31 @@
     <t>[0, 0, 0, 0, 1]</t>
   </si>
   <si>
+    <t>[0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 0, 0, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0, 0, 0]</t>
   </si>
   <si>
-    <t>[0, 0, 1, 3, 1]</t>
-  </si>
-  <si>
-    <t>['블루투스와 유선 핸즈프리만 있음되. 쓸데없는 기능 쓰지도 않는거 덕지덕지.. 스마트폰으로 다 되는데..', '이제 본격적으로 SW에 투자하려나 보네요. SW는 인재가 자산입니다.']</t>
+    <t>[1, 0, 1, 3, 1]</t>
+  </si>
+  <si>
+    <t>[('블루투스와 유선 핸즈프리만 있음되. 쓸데없는 기능 쓰지도 않는거 덕지덕지.. 스마트폰으로 다 되는데..', 0, 0), ('이제 본격적으로 SW에 투자하려나 보네요. SW는 인재가 자산입니다.', 5, 1)]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['학령인구 계속 쳐 주는 마당에 이 공고 대입 특례 수시 특성화고졸 재직자 특별전형 정원은 왜 계속 쳐 느냐? 수능 1도 안보고 인서울 프리패스 하는 재직자 특례 폐지하라 교육부 적폐놈들아', '어차피 뭘해도 이나라교육은 대학 대학원마저도 주입식이다 잘 해야 외국꺼 번역이나 하다 끝나것지뭐 기승전 학문적 사대주의']</t>
-  </si>
-  <si>
-    <t>['역시 일류명문 성대가 앞서서 가네요.']</t>
-  </si>
-  <si>
-    <t>['C? 학점인플레가 추세라해도 너무 후하다...C이상은 없을듯한데...']</t>
+    <t>[('학령인구 계속 쳐 주는 마당에 이 공고 대입 특례 수시 특성화고졸 재직자 특별전형 정원은 왜 계속 쳐 느냐? 수능 1도 안보고 인서울 프리패스 하는 재직자 특례 폐지하라 교육부 적폐놈들아', 4, 2), ('어차피 뭘해도 이나라교육은 대학 대학원마저도 주입식이다 잘 해야 외국꺼 번역이나 하다 끝나것지뭐 기승전 학문적 사대주의', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('역시 일류명문 성대가 앞서서 가네요.', 2, 0)]</t>
+  </si>
+  <si>
+    <t>[('C? 학점인플레가 추세라해도 너무 후하다...C이상은 없을듯한데...', 2, 0)]</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -663,7 +666,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -680,7 +683,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -697,7 +700,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -714,7 +717,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -731,7 +734,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -748,7 +751,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -765,7 +768,7 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -782,7 +785,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -799,7 +802,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -816,7 +819,7 @@
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -833,7 +836,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -850,7 +853,7 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -867,7 +870,7 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -884,7 +887,7 @@
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -901,7 +904,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -918,7 +921,7 @@
         <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -935,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -949,10 +952,10 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -969,7 +972,7 @@
         <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -983,10 +986,10 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1003,7 +1006,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1020,7 +1023,7 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1034,10 +1037,10 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1054,7 +1057,7 @@
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1068,10 +1071,10 @@
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1088,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1105,7 +1108,7 @@
         <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1122,7 +1125,7 @@
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/crawling_data/comments6_10.xlsx
+++ b/crawling_data/comments6_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>path</t>
   </si>
@@ -25,6 +25,9 @@
     <t>reaction</t>
   </si>
   <si>
+    <t>number of comments</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
@@ -239,9 +242,6 @@
   </si>
   <si>
     <t>[('학령인구 계속 쳐 주는 마당에 이 공고 대입 특례 수시 특성화고졸 재직자 특별전형 정원은 왜 계속 쳐 느냐? 수능 1도 안보고 인서울 프리패스 하는 재직자 특례 폐지하라 교육부 적폐놈들아', 4, 2), ('어차피 뭘해도 이나라교육은 대학 대학원마저도 주입식이다 잘 해야 외국꺼 번역이나 하다 끝나것지뭐 기승전 학문적 사대주의', 0, 0)]</t>
-  </si>
-  <si>
-    <t>[('역시 일류명문 성대가 앞서서 가네요.', 2, 0)]</t>
   </si>
   <si>
     <t>[('C? 학점인플레가 추세라해도 너무 후하다...C이상은 없을듯한데...', 2, 0)]</t>
@@ -615,13 +615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,498 +634,588 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/crawling_data/comments6_10.xlsx
+++ b/crawling_data/comments6_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>path</t>
   </si>
@@ -31,220 +31,181 @@
     <t>comments</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004582422</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002942712</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004633104</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010472110</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004538863</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010483106</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002672234</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=100&amp;oid=016&amp;aid=0001830375</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002942921</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=277&amp;aid=0004898192</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=001&amp;aid=0012343848</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010476203</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010464067</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005322796</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002186427</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002942710</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002941403</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010479381</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010479497</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=001&amp;aid=0012296173</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005310578</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005311188</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=018&amp;aid=0004914627</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005306793</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002220884</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004576699</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002941208</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002670474</t>
-  </si>
-  <si>
-    <t>현대오토에버도 SW 인력 500명 뽑는다</t>
-  </si>
-  <si>
-    <t>[신SW상품대상 3·4월 수상작]심사평</t>
-  </si>
-  <si>
-    <t>김봉진 "교육 불평등 해소위해 노트북 써달라"</t>
-  </si>
-  <si>
-    <t>울산 소프트웨어 교육의 산실 'SW미래채움 센터' 개소</t>
-  </si>
-  <si>
-    <t>순천향대, 소프트웨어 중심대학 선정...AI·SW 융·복합 인재양성</t>
-  </si>
-  <si>
-    <t>배재대 AI·SW사업단, 외국인 유학생 전주기적 SW 교육</t>
-  </si>
-  <si>
-    <t>SW협회-네이버클라우드, 중소 SaaS기업 글로벌 진출 돕는다</t>
-  </si>
-  <si>
-    <t>조선대 SW중심대학사업단-광주남구청 코딩교실 운영</t>
-  </si>
-  <si>
-    <t>한동대, SW중심대학 창업팀 '이노폴리스캠퍼스사업'에 선정</t>
-  </si>
-  <si>
-    <t>모아소프트 “과학기술정보통신부 선정 SW 전문인력 양성기관(SWETI) 지정”</t>
-  </si>
-  <si>
-    <t>성대 등 9곳 SW중심대학 선정…AI대학원은 서울대·중앙대에</t>
-  </si>
-  <si>
-    <t>포항테크노파크, SW 전문인재 양성기틀 마련한다</t>
-  </si>
-  <si>
-    <t>선문대, 충남교육청과 'AI·SW 인재' 발굴 협약</t>
-  </si>
-  <si>
-    <t>충북교육연구정보원, 소프트웨어 교육용 교구 대여</t>
-  </si>
-  <si>
-    <t>포항TP, 2021년 ‘SW전문인력양성기관’ 선정</t>
-  </si>
-  <si>
-    <t>[신SW상품대상 3·4월 수상작]블루커뮤니케이션 '어썸코드'</t>
-  </si>
-  <si>
-    <t>[한국정보과학회 SWCS2021 특별세션]"초·중 SW교육 확대, 관심 높이고 AI교육 연계해야"</t>
-  </si>
-  <si>
-    <t>폴리텍 분당기술교육원 10일까지 클라우드 훈련생 모집</t>
-  </si>
-  <si>
-    <t>[교육소식] 동신대, 전남도 대학·지역연계협력 지원사업 선정 등</t>
-  </si>
-  <si>
-    <t>네이버, 세종시 학생·교사 대상 AI·SW 교육</t>
-  </si>
-  <si>
-    <t>'디지털 혁신' 이끌 임베디드SW 경진대회 개최…5월24일까지 접수</t>
-  </si>
-  <si>
-    <t>배재대, SW버스 활용 지역 학생 대상 4차 산업혁명 체험 교육</t>
-  </si>
-  <si>
-    <t>성균관대 소프트웨어융합대학, 과기부 SW중심대학사업 선정</t>
-  </si>
-  <si>
-    <t>충남대, 과기부 SW중심대학 2단계 사업 선정…6년간 110억 지원</t>
-  </si>
-  <si>
-    <t>SW 정책, B학점...'디지털 뉴딜'은 최선·디테일은 다소 미흡</t>
-  </si>
-  <si>
-    <t>삼육대, 'SW중심대학' 신규 선정...최대 60억 원 지원</t>
-  </si>
-  <si>
-    <t>인천TP, 섬마을 학생 찾아가는 SW교육 인기</t>
-  </si>
-  <si>
-    <t>SW 산업현장 찾은 조경식 과기부 차관 “민관협력 SW 인재양성 추진”</t>
-  </si>
-  <si>
-    <t>[7, 0, 0, 0, 1]</t>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002683212</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001102737</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001101923</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002952772</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004565365</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002953023</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002953464</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002682071</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012482097</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010563371</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012483220</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010562975</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=030&amp;aid=0002954187</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=081&amp;aid=0003197936</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010561903</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002105818</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004965212</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002953867</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=029&amp;aid=0002684349</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012458243</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010552424</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010552110</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002224445</t>
+  </si>
+  <si>
+    <t>티맥스오에스, 공개SW 개발자대회 후원</t>
+  </si>
+  <si>
+    <t>동의대 인공지능로봇연구소, SW·AI·Robotics 전문기업과 지능형 코딩 로봇 공동연구와 산학협력 MOU 체결</t>
+  </si>
+  <si>
+    <t>동명대 경력단절여성 SW교육강사양성과정 모집</t>
+  </si>
+  <si>
+    <t>강원정보문화진흥원-강원도일자리재단, SW융합전문 인력 양성 협력</t>
+  </si>
+  <si>
+    <t>"학교 SW·AI 교육 턱없이 부족…학부모들은 학원행"</t>
+  </si>
+  <si>
+    <t>경기도, AI·로봇 교육체험 '미래채움센터' 개소</t>
+  </si>
+  <si>
+    <t>조선대 SW중심대학사업단, 광주월산초등학교 AI·SW STEAM 페스티벌 성료</t>
+  </si>
+  <si>
+    <t>“공개SW 개발자대회에서 실력 키우세요”</t>
+  </si>
+  <si>
+    <t>조선대, AI 등 체험 첨단기술 교육 공간 구축</t>
+  </si>
+  <si>
+    <t>'섬마을 학교서 AI 교육' 찾아가는 코딩교실 호응</t>
+  </si>
+  <si>
+    <t>부산 기업 연계 인재 양성…CJ올리브네트웍스 교육과정</t>
+  </si>
+  <si>
+    <t>[울산소식] '제1 회 울산 지역 SW미래채움 SW경진대회' 성료 등</t>
+  </si>
+  <si>
+    <t>[미래포럼]대응 필요한 'SW전략물자관리제도'</t>
+  </si>
+  <si>
+    <t>‘취업률 68%’ 삼성 청년SW아카데미 교육생 2배 확대</t>
+  </si>
+  <si>
+    <t>SKT 기업용 SW 장터에 '마이크로소프트 365' 입점 기념 이벤트</t>
+  </si>
+  <si>
+    <t>오픈소스SW 관리 툴 ‘포스라이트’ 공개한 LG전자, “글로벌 표준 거듭나겠다”</t>
+  </si>
+  <si>
+    <t>KT, 국내 SW기업 클라우드 전환 돕는다</t>
+  </si>
+  <si>
+    <t>[신SW상품대상 5·6월 수상작]심사평</t>
+  </si>
+  <si>
+    <t>(주)무하유 LMS API 연동형 표절검사 ‘CK브릿지’, 신SW 상품대상 장관상 수상</t>
+  </si>
+  <si>
+    <t>한국해양대·동의대·부산경상대 스마트 물류 SW교육 선정</t>
+  </si>
+  <si>
+    <t>경기도경제과학진흥원, '경기SW미래채움 센터' 24일 개소식</t>
+  </si>
+  <si>
+    <t>[부산소식]동의대, 스마트물류 SW인재 양성사업 선정 등</t>
+  </si>
+  <si>
+    <t>정부, 5년간 SW인재 41.3만명 키운다</t>
   </si>
   <si>
     <t>[0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>[6, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[8, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[10, 3, 0, 2, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 3, 1]</t>
-  </si>
-  <si>
-    <t>[('블루투스와 유선 핸즈프리만 있음되. 쓸데없는 기능 쓰지도 않는거 덕지덕지.. 스마트폰으로 다 되는데..', 0, 0), ('이제 본격적으로 SW에 투자하려나 보네요. SW는 인재가 자산입니다.', 5, 1)]</t>
+    <t>[1, 0, 0, 2, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>[18, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[5, 0, 1, 0, 3]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[12, 1, 0, 11, 2]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[('학령인구 계속 쳐 주는 마당에 이 공고 대입 특례 수시 특성화고졸 재직자 특별전형 정원은 왜 계속 쳐 느냐? 수능 1도 안보고 인서울 프리패스 하는 재직자 특례 폐지하라 교육부 적폐놈들아', 4, 2), ('어차피 뭘해도 이나라교육은 대학 대학원마저도 주입식이다 잘 해야 외국꺼 번역이나 하다 끝나것지뭐 기승전 학문적 사대주의', 0, 0)]</t>
-  </si>
-  <si>
-    <t>[('C? 학점인플레가 추세라해도 너무 후하다...C이상은 없을듯한데...', 2, 0)]</t>
+    <t>[('짜장 아이들 댓글 교육 시키나? 문순씨 홧팅.... 달창 30프로 제외하고 민주당 지지하는 놈 없음', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('SW, AI 모두가 할 수 있는게 아닙니다. 감각(보통 어려서 부터 시키지 않아도 관심을 가짐)이 있어야하고 재능이 있어야 합니다. 피아노, 수영, 스케이트, 변호사, 회계사 처럼 시간만 들인다고 다 할 수 있는 그런 스킬이 아닙니다.', 1, 1), ('고등학교 졸업하고 바로 취업하거나 창업할 거 아니라면 굳이 필요할까? 물론 기본적인 교육이라면 수긍이 가지만, 그 이상 본격적인 AI를 공부하기엔 너무 양이 방대한데. 그리고 SW능력도 코딩교육 말하는 것 같은데, 어디까지나 알고리즘을 논리적으로 이해하고, 주어진 문제를 어떻게 해결한 것인가로 충분하지 않나? 고등학교 때부터 빡빡하게 하면 대학가서 SW공부 안한다고. 초중고때처럼 교재보고 공부하는 게 아니라 인터넷에서 자율적으로 학습하고, 자격증 시험도 그리 중요하지 않아서 문제집 푸는 것처럼 피드백 받기 힘든데', 1, 3)]</t>
+  </si>
+  <si>
+    <t>[('전라남도 지역에 섬이 많다고 들었습니다.이런 도서지역에 사는 학생들에게 인공지능 소프트웨어 같은 첨단 기술교육이 이루어 진다니 반가운 소식입니다.꿈을 꿀 수 있도록 많은 지원있길 바랍니다.', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('아무리 어벙이가 지지고 볶아대도 어차피 대한민국은 기업의 힘으로 돌아가는 나라고 산업화 이후 역사가 말해주듯 지금까지도 쭉 그렇게 발전해왔다. 이런 나라에서 도대체 어떤 개같은 생각을 가지고 반기업 규제로 떡칠한 법안들만 미친듯이 180석 탱크로 몰아붙여 스스로 대한망국의 길로 걸어들어가는지.. ㅉㅉ 누구든 상관없다 정권교체 투표나 잘합시다', 22, 1), ('이젠대학교필요없네', 6, 2), ('누적취업률 68%가 높은건가요?', 1, 0), ('요즘드는생각 대권에관심있나', 1, 1), ('대학은 등록금만 받아가고 시간낭비만 하는곳인가.', 0, 0), ('고등학교 -&gt; 취업 이냐. 아니먄 고등학교 -&gt; 대학교 -&gt; 취업 이냐 아니면 대학원 -&gt; 취업이냐. 답 나오지. 결국 “지식이 쌓이면 취업(?)” 에 물음표이지..생각좀 해봐라. “교육 vs 취업 격차가 너무 많이 커버리면서 “대학 수료증” 이라는 말도 안되게 “낙인 아닌 낙인”” 이지. 그러니까 취업 교육원이 되는 이유이지..', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('현재의 인력부족은 교육정책이 필요한게 아니라 앞선 선배 개발자들에 대한처우와 환경등을 경함한 후임들이 더이상 안하려 하는게 문제인디 원인을 잘목파악하는듯.', 25, 0), ('정부가 손대면 망한다', 13, 0), ('그중에 여자는 덤으로 채용하것지 무능정부', 4, 1), ('지금도 충분히 저질 인력이 생산되는 중이야! 지금까지 정부에서 양성인력 통계좀 내봐! 뭘좀 하지마!!! 니들이 만든 교육과정 강사들도 개판이고~점점 허접하더만! 그냥좀 시장에서 알아서 굴러가게 둬~ 복붙하는 인력 필요 없고~노동자 보호부터해! 내가 요즘 문과 생도 PM할수 있다고 홍보 하는 교육과정과 경단녀에게 퍼블리셔 교육시켜서 무슨 it인력을 키운다고 홍보 하는 그런 학원들 다 불지르고 싶다!!! AI교육과정을 무슨배움카드 신청하먄 누구나 공짜 수강 가능 하데~ 진짜 질 좋은 인력에 관심이 있긴 하니? 아빡쳐 전공자 뽑아도 ㄱ', 3, 0), ('IT기업들 노동 환경을 개선해봐라 알아서 공부하고 취업한다', 3, 0), ('어휴 있는사람 처우를 개선할 생각은 안하고.. 하는짓 하고는... 저따위로 하는데 사람이 오겠냐', 2, 1), ('부족한게 아니란다', 1, 0), ('과연 실상을 알고도 선호하는 직업이 될수 있을까.... 업무 환경과 그에 따른 처우 개선도 같이 진행되길', 1, 0), ('초급만 만들거냐?', 1, 0), ('대학 컴공과 정원은 오히려 줄여놓고 대체 뭐하는짓이지?', 1, 0), ('대우가 좋아지고 돈 많이주면 알아서 기어들어온다ㆍ월화수목 금금금 ㆍㆍ 니들이 현실을 아니.?', 0, 0), ('무조건 교육 시키면 되는 줄 아는 공무원들 ㅋㅋ 실무하고 교육하고 천지 차이야 ㅋㅋㅋ 그러니 이런 정책만 내지 ㅋ 환경을 개선하고 처우를 개선해야 실력있고능력 있는 사람이 온다. 아니면 다 부들만 머리 채우고 있지 ㅋㅋㅋ', 0, 0), ('생짜는 많아도 일할만한 사람은 부족한 상황이죠진입 장벽은 낮지만 진입하자마자 의 장벽이 있죠 ^^; 실력 키울 때까진 박봉에 야근 주말근무 심하면 가라 경력 커버 까지 해야 하죠it 쪽만 그런 건 아니고 기술직이 그런 경향이 있는대 it쪽이좀더 심해서 3D 업종으로 분류되고그걸 못 버티는 거죠실력 있고 일잘하면 칼퇴근 해도 뭐라할 사람 없을걸요 ㅋ~결론은 회사는 학교가 아니니 회사탓을 할수는 없다정부는 산학연계해서 재대로 일할수 있는 인력을 키워야 된다는 것 입니다', 0, 0), ('잘하는 인력을 키워야지ㅋㅋㅋ 코딩할 사람은 많음', 0, 0)]</t>
   </si>
 </sst>
 </file>
@@ -615,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,16 +607,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -666,16 +627,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -686,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -706,16 +667,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -723,19 +684,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -743,19 +704,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -763,19 +724,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -783,19 +744,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -803,19 +764,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -823,19 +784,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -843,19 +804,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -863,19 +824,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -883,19 +844,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -903,19 +864,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -923,19 +884,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -943,19 +904,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -963,19 +924,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -983,19 +944,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1003,19 +964,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1023,19 +984,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1043,19 +1004,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1063,19 +1024,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1083,139 +1044,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1243,12 +1084,6 @@
     <hyperlink ref="B22" r:id="rId21"/>
     <hyperlink ref="B23" r:id="rId22"/>
     <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
